--- a/03 extraction consolidation results.xlsx
+++ b/03 extraction consolidation results.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssint\Documents\JKU\Publikationen\MDE4DT\mde4dts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781D530-8CEC-4DA0-AAE1-EE33BE4A14BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E25177-5FF3-4E88-BABF-D06A40CC85DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$T$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$T$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="438">
   <si>
     <t>Title</t>
   </si>
@@ -160,18 +160,6 @@
   </si>
   <si>
     <t>Maintain</t>
-  </si>
-  <si>
-    <t>Case Study on Automated and Continuous Reliability Assessment of Software-Defined Manufacturing Based on Digital Twins</t>
-  </si>
-  <si>
-    <t>SysML v2 structure models</t>
-  </si>
-  <si>
-    <t>SysML v2 action sequences</t>
-  </si>
-  <si>
-    <t>Markov chains</t>
   </si>
   <si>
     <t>Combining Low-Code Programming and SDL-Based Modeling with Snap! in the Industry 4.0 Context</t>
@@ -1193,9 +1181,6 @@
   </si>
   <si>
     <t>S37</t>
-  </si>
-  <si>
-    <t>S26</t>
   </si>
   <si>
     <t>S21</t>
@@ -2029,9 +2014,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2069,7 +2054,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2175,7 +2160,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2317,7 +2302,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2325,11 +2310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -2357,60 +2342,60 @@
       <c r="N1" s="12"/>
       <c r="O1" s="13"/>
       <c r="P1" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="13"/>
       <c r="S1" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>4</v>
@@ -2433,37 +2418,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>14</v>
@@ -2478,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2486,34 +2471,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>14</v>
@@ -2524,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2536,25 +2521,25 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P5" t="s">
         <v>14</v>
@@ -2577,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2589,22 +2574,22 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
@@ -2615,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -2627,25 +2612,25 @@
         <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>28</v>
@@ -2668,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
@@ -2680,22 +2665,22 @@
         <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>14</v>
@@ -2706,34 +2691,34 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
@@ -2745,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2753,7 +2738,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>31</v>
@@ -2765,28 +2750,28 @@
         <v>18</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>28</v>
@@ -2798,7 +2783,7 @@
         <v>30</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>33</v>
@@ -2809,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
@@ -2821,25 +2806,25 @@
         <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>28</v>
@@ -2850,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -2859,25 +2844,25 @@
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>28</v>
@@ -2888,43 +2873,43 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
@@ -2939,7 +2924,7 @@
         <v>24</v>
       </c>
       <c r="T13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -2947,40 +2932,40 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P14" t="s">
         <v>14</v>
@@ -2991,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
@@ -3003,28 +2988,28 @@
         <v>36</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>38</v>
@@ -3036,7 +3021,7 @@
         <v>16</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>39</v>
@@ -3047,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>35</v>
@@ -3059,89 +3044,89 @@
         <v>37</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" t="s">
-        <v>202</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" t="s">
-        <v>221</v>
-      </c>
-      <c r="N17" t="s">
-        <v>202</v>
-      </c>
-      <c r="O17" t="s">
-        <v>278</v>
-      </c>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" t="s">
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" t="s">
-        <v>24</v>
+      <c r="R17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -3153,366 +3138,378 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="O18" t="s">
+        <v>291</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>217</v>
+      </c>
+      <c r="N19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" t="s">
-        <v>221</v>
-      </c>
-      <c r="N20" t="s">
-        <v>202</v>
-      </c>
-      <c r="O20" t="s">
-        <v>295</v>
-      </c>
-      <c r="P20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" t="s">
-        <v>49</v>
+      <c r="S20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>274</v>
       </c>
       <c r="P21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" t="s">
-        <v>200</v>
-      </c>
-      <c r="L23" t="s">
-        <v>195</v>
-      </c>
-      <c r="N23" t="s">
-        <v>208</v>
-      </c>
-      <c r="O23" t="s">
-        <v>278</v>
-      </c>
-      <c r="P23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" t="s">
-        <v>56</v>
+      <c r="F23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>291</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>28</v>
@@ -3521,57 +3518,57 @@
         <v>29</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="R26" t="s">
         <v>16</v>
@@ -3579,308 +3576,293 @@
       <c r="S26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P27" s="5" t="s">
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="P27" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" t="s">
+        <v>304</v>
+      </c>
+      <c r="P29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R29" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>394</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I28" t="s">
-        <v>202</v>
-      </c>
-      <c r="J28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" t="s">
-        <v>220</v>
-      </c>
-      <c r="O28" t="s">
-        <v>308</v>
-      </c>
-      <c r="P28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>394</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P29" t="s">
-        <v>28</v>
+      <c r="S29" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="R30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" t="s">
+        <v>291</v>
+      </c>
+      <c r="P31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" t="s">
         <v>30</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>396</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" t="s">
-        <v>202</v>
-      </c>
-      <c r="J31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>200</v>
-      </c>
-      <c r="L31" t="s">
-        <v>194</v>
-      </c>
-      <c r="N31" t="s">
-        <v>202</v>
-      </c>
-      <c r="O31" t="s">
-        <v>308</v>
-      </c>
-      <c r="P31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>29</v>
-      </c>
-      <c r="R31" t="s">
-        <v>16</v>
       </c>
       <c r="S31" t="s">
         <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>19</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>253</v>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s">
+        <v>218</v>
+      </c>
+      <c r="P32" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -3888,10 +3870,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -3900,40 +3882,25 @@
         <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J33" t="s">
         <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L33" t="s">
-        <v>223</v>
-      </c>
-      <c r="O33" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="P33" t="s">
         <v>38</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R33" t="s">
-        <v>30</v>
-      </c>
-      <c r="S33" t="s">
-        <v>24</v>
-      </c>
-      <c r="T33" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -3941,34 +3908,34 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P34" t="s">
         <v>28</v>
@@ -3979,34 +3946,34 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P35" t="s">
         <v>38</v>
@@ -4017,37 +3984,37 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P36" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -4055,169 +4022,187 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>398</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J38" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" t="s">
-        <v>208</v>
-      </c>
-      <c r="L38" t="s">
-        <v>207</v>
-      </c>
-      <c r="P38" t="s">
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>21</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>22</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>398</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="Q39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>22</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" t="s">
-        <v>208</v>
-      </c>
-      <c r="J39" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" t="s">
-        <v>208</v>
-      </c>
-      <c r="L39" t="s">
-        <v>207</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="E40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P40" s="8" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>21</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4225,557 +4210,557 @@
         <v>22</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="K41" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R41" s="8" t="s">
+    </row>
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>23</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>22</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>207</v>
+        <v>190</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="S44" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>25</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>26</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>26</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>27</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>25</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>25</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>26</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J48" s="8" t="s">
+      <c r="T48" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>202</v>
+        <v>219</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T49" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>27</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="Q49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>28</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>29</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>29</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>28</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="P51" s="8" t="s">
+      <c r="E52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
-        <v>28</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4783,52 +4768,40 @@
         <v>29</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>278</v>
+        <v>191</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4836,37 +4809,34 @@
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>38</v>
@@ -4877,172 +4847,175 @@
         <v>29</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>116</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>30</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q56" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>38</v>
+      <c r="R56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="R57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="T58" s="8" t="s">
-        <v>128</v>
+    </row>
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>31</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5050,242 +5023,269 @@
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R59" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>31</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" s="5" t="s">
+    </row>
+    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>32</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>32</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>33</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="P60" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="P62" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>31</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
-        <v>32</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R62" s="8" t="s">
+      <c r="Q62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R62" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>14</v>
+        <v>172</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Q64" s="5" t="s">
         <v>15</v>
@@ -5294,119 +5294,86 @@
         <v>16</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
-        <v>34</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>35</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T65" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>35</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>140</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5414,262 +5381,268 @@
         <v>35</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>223</v>
+        <v>190</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>35</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="P68" s="5" t="s">
-        <v>14</v>
+    <row r="68" spans="1:20" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>36</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>202</v>
+        <v>219</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
-        <v>36</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="Q69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>37</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="D70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J70" s="8" t="s">
+      <c r="F70" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K70" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q70" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T70" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>37</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P71" s="5" t="s">
+      <c r="K70" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R71" s="5" t="s">
+    </row>
+    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>38</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R71" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T71" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
-        <v>37</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P72" s="5" t="s">
+    </row>
+    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>38</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P72" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5678,272 +5651,278 @@
         <v>38</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>308</v>
+        <v>189</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="P73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R73" s="8" t="s">
+    </row>
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>39</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R74" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>38</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P74" s="8" t="s">
-        <v>14</v>
+      <c r="S74" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>263</v>
+        <v>142</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="P75" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
-        <v>39</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L76" s="5" t="s">
+      <c r="Q75" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S75" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="T75" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>40</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P76" s="5" t="s">
+      <c r="I76" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q76" s="5" t="s">
+    </row>
+    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>41</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="R77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S76" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>40</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="S77" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>41</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S77" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="T77" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>40</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J78" s="8" t="s">
+      <c r="D78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K78" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P78" s="8" t="s">
-        <v>14</v>
+      <c r="K78" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5951,222 +5930,228 @@
         <v>41</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O79" s="5" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q79" s="5" t="s">
+    </row>
+    <row r="80" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>42</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R79" s="5" t="s">
+      <c r="R80" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="S79" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>41</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="P80" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>220</v>
+        <v>230</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="R82" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>43</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="S82" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T82" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>44</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O83" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P83" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S83" s="5" t="s">
-        <v>24</v>
+      <c r="E83" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6174,55 +6159,37 @@
         <v>44</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="P84" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="Q84" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S84" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T84" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6230,351 +6197,363 @@
         <v>44</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>45</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P85" s="8" t="s">
+      <c r="E86" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P86" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
-        <v>44</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J86" s="8" t="s">
+      <c r="Q86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T86" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>45</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>46</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K86" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P86" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
-        <v>44</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="N87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="P87" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
-        <v>45</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J88" s="5" t="s">
+      <c r="I88" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R88" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T88" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>46</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>47</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T90" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="O88" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P88" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S88" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T88" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
-        <v>45</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L89" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="P89" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
-        <v>46</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P90" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R90" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T90" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J91" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I91" s="8" t="s">
+      <c r="K91" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R91" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>48</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K91" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P91" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
-        <v>47</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L92" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="O92" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P92" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T92" s="5" t="s">
-        <v>168</v>
+      <c r="E92" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P92" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6582,124 +6561,133 @@
         <v>48</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="O93" s="8" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="P93" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q93" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R93" s="8" t="s">
+    </row>
+    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>49</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S93" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
-        <v>48</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C94" s="8" t="s">
+      <c r="S94" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>49</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J94" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="K94" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P94" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
-        <v>48</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P95" s="8" t="s">
+      <c r="D95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P95" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6708,133 +6696,127 @@
         <v>49</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>277</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O96" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
+        <v>50</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="P96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q96" s="5" t="s">
+      <c r="D97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R97" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S97" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
         <v>50</v>
       </c>
-      <c r="R96" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S96" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="T96" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
-        <v>49</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="B98" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L97" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P97" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
-        <v>49</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P98" s="5" t="s">
+      <c r="E98" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P98" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6843,52 +6825,37 @@
         <v>50</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="P99" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="Q99" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S99" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T99" s="8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6896,10 +6863,10 @@
         <v>50</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>21</v>
@@ -6908,517 +6875,523 @@
         <v>286</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>287</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L100" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>51</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T101" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>51</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>52</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R103" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S103" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="T103" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>52</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="P104" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>53</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P100" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
-        <v>50</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="K101" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="P101" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8">
-        <v>50</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="P102" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
-        <v>51</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O103" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P103" s="5" t="s">
+      <c r="I105" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="P105" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R103" s="5" t="s">
+      <c r="R105" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="S103" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T103" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>51</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L104" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P104" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
-        <v>52</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N105" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O105" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="P105" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R105" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S105" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="T105" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>217</v>
+        <v>190</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="P106" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
-        <v>53</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="Q106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R106" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S106" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T106" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
+        <v>54</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O107" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P107" s="5" t="s">
+      <c r="E107" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P107" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R107" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8">
-        <v>54</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="8" t="s">
+    </row>
+    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>55</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J108" s="8" t="s">
+      <c r="E108" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>55</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="K108" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N108" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O108" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="P108" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q108" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R108" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S108" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T108" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
-        <v>54</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="8" t="s">
+      <c r="D109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J109" s="8" t="s">
+      <c r="F109" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="K109" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P109" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>55</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="K109" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="P109" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>56</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J110" s="5" t="s">
+      <c r="D110" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="K110" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O110" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="P110" s="5" t="s">
+      <c r="F110" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P110" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R110" s="5" t="s">
+      <c r="R110" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>55</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C111" s="5" t="s">
+    <row r="111" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>56</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J111" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P111" s="5" t="s">
+      <c r="K111" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P111" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7427,43 +7400,37 @@
         <v>56</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="O112" s="8" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="P112" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="R112" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7471,34 +7438,34 @@
         <v>56</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P113" s="8" t="s">
         <v>38</v>
@@ -7509,37 +7476,37 @@
         <v>56</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>321</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7547,37 +7514,37 @@
         <v>56</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>321</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7585,37 +7552,34 @@
         <v>56</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7623,37 +7587,37 @@
         <v>56</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7661,194 +7625,209 @@
         <v>56</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P118" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="8">
-        <v>56</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D119" s="8" t="s">
+    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>57</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J119" s="8" t="s">
+      <c r="E119" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O119" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R119" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>57</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J120" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K119" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P119" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="8">
-        <v>56</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L120" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P120" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
-        <v>57</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C121" s="5" t="s">
+      <c r="K120" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8">
+        <v>58</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="5" t="s">
+      <c r="D121" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O121" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P121" s="5" t="s">
+      <c r="F121" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P121" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R121" s="5" t="s">
+      <c r="R121" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
-        <v>57</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C122" s="5" t="s">
+    <row r="122" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="8">
+        <v>58</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="K122" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L122" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P122" s="5" t="s">
+      <c r="D122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N122" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P122" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7857,128 +7836,134 @@
         <v>58</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>373</v>
+        <v>198</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O123" s="8" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="P123" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R123" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8">
-        <v>58</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C124" s="8" t="s">
+    </row>
+    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>59</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J124" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" s="8" t="s">
+      <c r="K124" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="T124" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="N124" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P124" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="8">
-        <v>58</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J125" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="N125" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P125" s="8" t="s">
-        <v>38</v>
+    </row>
+    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>59</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P125" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7986,190 +7971,190 @@
         <v>59</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E126" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J126" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="K126" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O126" s="5" t="s">
-        <v>295</v>
+        <v>190</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="P126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q126" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R126" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S126" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="T126" s="5" t="s">
+    </row>
+    <row r="127" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8">
+        <v>60</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="8" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
-        <v>59</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="5" t="s">
+      <c r="F127" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J127" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K127" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P127" s="5" t="s">
+      <c r="K127" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P127" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S127" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="T127" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I128" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M128" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J128" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>202</v>
+      <c r="O128" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="P128" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="8">
-        <v>60</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="Q128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>61</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I129" s="8" t="s">
+      <c r="D129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M129" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="K129" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="N129" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O129" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="P129" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q129" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R129" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S129" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="T129" s="8" t="s">
-        <v>343</v>
+      <c r="P129" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8177,309 +8162,215 @@
         <v>61</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O130" s="5" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="P130" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q130" s="5" t="s">
+    </row>
+    <row r="131" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="8">
+        <v>62</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P131" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S131" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="T131" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8">
+        <v>63</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O132" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="P132" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q132" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R130" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S130" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="5">
-        <v>61</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L131" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M131" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="P131" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="5">
-        <v>61</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L132" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P132" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="8">
-        <v>62</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="K133" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="N133" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O133" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P133" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q133" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R133" s="8" t="s">
+      <c r="R132" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S133" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="T133" s="8" t="s">
+      <c r="S132" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T132" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="8">
-        <v>63</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C134" s="8" t="s">
+    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>64</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="8" t="s">
+      <c r="D133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F134" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J134" s="8" t="s">
+      <c r="F133" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J133" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="K134" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O134" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P134" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q134" s="8" t="s">
+      <c r="K133" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O133" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q133" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R134" s="8" t="s">
+      <c r="R133" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S134" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T134" s="8" t="s">
+      <c r="S133" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T133" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="5">
-        <v>64</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O135" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P135" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q135" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R135" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S135" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T135" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C136" s="6"/>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C134" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T70">
-      <sortCondition ref="A2:A70"/>
+  <autoFilter ref="A2:T133" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T68">
+      <sortCondition ref="A2:A68"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T135">
-    <sortCondition ref="A2:A135"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T133">
+    <sortCondition ref="A2:A133"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="D1:O1"/>

--- a/03 extraction consolidation results.xlsx
+++ b/03 extraction consolidation results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E25177-5FF3-4E88-BABF-D06A40CC85DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4A532-CB74-4DB8-B8ED-95D9B57564AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$T$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'extraction consolidation result'!$A$2:$T$138</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="452">
   <si>
     <t>Title</t>
   </si>
@@ -1349,6 +1349,48 @@
   </si>
   <si>
     <t>S31</t>
+  </si>
+  <si>
+    <t>Applying Discrete Event Simulation on Patient Flow Scenarios with Health Monitoring Systems</t>
+  </si>
+  <si>
+    <t>Research on Digital Twin Technology of Small Hydraulic System</t>
+  </si>
+  <si>
+    <t>simulation model</t>
+  </si>
+  <si>
+    <t>solution proposal</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>as-designed</t>
+  </si>
+  <si>
+    <t>Human heath and social work activities</t>
+  </si>
+  <si>
+    <t>health monitoring</t>
+  </si>
+  <si>
+    <t>code generation</t>
+  </si>
+  <si>
+    <t>simulation data</t>
+  </si>
+  <si>
+    <t>model interpretation</t>
+  </si>
+  <si>
+    <t>MoSTHeath Framework</t>
+  </si>
+  <si>
+    <t>no use case</t>
+  </si>
+  <si>
+    <t>maintenance platform</t>
   </si>
 </sst>
 </file>
@@ -1930,14 +1972,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2310,48 +2351,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="114.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="114.3125" customWidth="1"/>
+    <col min="4" max="4" width="42.1015625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="T1" s="13"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -2413,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2466,7 +2507,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2504,7 +2545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2557,7 +2598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2595,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2648,7 +2689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2686,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2733,7 +2774,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2789,7 +2830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -2830,7 +2871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2868,7 +2909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2927,7 +2968,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2971,7 +3012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -3027,7 +3068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -3068,7 +3109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -3121,7 +3162,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3174,7 +3215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3215,7 +3256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -3274,7 +3315,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3330,7 +3371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3368,7 +3409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -3421,7 +3462,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3474,7 +3515,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -3527,7 +3568,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3577,7 +3618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>16</v>
       </c>
@@ -3615,7 +3656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -3665,7 +3706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>18</v>
       </c>
@@ -3721,7 +3762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>19</v>
       </c>
@@ -3774,7 +3815,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
@@ -3827,7 +3868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -3865,7 +3906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3903,7 +3944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3941,7 +3982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>20</v>
       </c>
@@ -3979,7 +4020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>20</v>
       </c>
@@ -4017,7 +4058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4055,14 +4096,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5">
         <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>362</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -4111,139 +4152,139 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7">
         <v>22</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="8" t="s">
+      <c r="I39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="K39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="N39" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="O39" s="8" t="s">
+      <c r="N39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="R39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="S39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7">
         <v>22</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="I40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L40" s="8" t="s">
+      <c r="K40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7">
         <v>22</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="F41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J41" s="8" t="s">
+      <c r="I41" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L41" s="8" t="s">
+      <c r="K41" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5">
         <v>23</v>
       </c>
@@ -4287,60 +4328,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="7">
         <v>24</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43" s="8" t="s">
+      <c r="I43" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L43" s="8" t="s">
+      <c r="K43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N43" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O43" s="8" t="s">
+      <c r="N43" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="P43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="R43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="8" t="s">
+      <c r="S43" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5">
         <v>25</v>
       </c>
@@ -4390,7 +4431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5">
         <v>25</v>
       </c>
@@ -4428,104 +4469,104 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7">
         <v>26</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J46" s="8" t="s">
+      <c r="I46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="N46" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O46" s="8" t="s">
+      <c r="N46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="R46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="S46" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7">
         <v>26</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J47" s="8" t="s">
+      <c r="I47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L47" s="8" t="s">
+      <c r="K47" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N47" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P47" s="8" t="s">
+      <c r="N47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="T47" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5">
         <v>27</v>
       </c>
@@ -4581,95 +4622,95 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7">
         <v>28</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J49" s="8" t="s">
+      <c r="I49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L49" s="8" t="s">
+      <c r="K49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P49" s="8" t="s">
+      <c r="P49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q49" s="8" t="s">
+      <c r="Q49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S49" s="8" t="s">
+      <c r="S49" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7">
         <v>28</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J50" s="8" t="s">
+      <c r="I50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L50" s="8" t="s">
+      <c r="K50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="P50" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5">
         <v>29</v>
       </c>
@@ -4722,7 +4763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5">
         <v>29</v>
       </c>
@@ -4763,7 +4804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5">
         <v>29</v>
       </c>
@@ -4804,7 +4845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5">
         <v>29</v>
       </c>
@@ -4842,7 +4883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5">
         <v>29</v>
       </c>
@@ -4880,63 +4921,63 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7">
         <v>30</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J56" s="8" t="s">
+      <c r="I56" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L56" s="8" t="s">
+      <c r="K56" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N56" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O56" s="8" t="s">
+      <c r="N56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="P56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q56" s="8" t="s">
+      <c r="Q56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R56" s="8" t="s">
+      <c r="R56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S56" s="8" t="s">
+      <c r="S56" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="T56" s="8" t="s">
+      <c r="T56" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5">
         <v>31</v>
       </c>
@@ -4980,7 +5021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5">
         <v>31</v>
       </c>
@@ -5018,7 +5059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5">
         <v>31</v>
       </c>
@@ -5056,89 +5097,89 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7">
         <v>32</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H60" s="8" t="s">
+      <c r="F60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60" s="8" t="s">
+      <c r="I60" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L60" s="8" t="s">
+      <c r="K60" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="O60" s="8" t="s">
+      <c r="O60" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="P60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R60" s="8" t="s">
+      <c r="R60" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7">
         <v>32</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J61" s="8" t="s">
+      <c r="I61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L61" s="8" t="s">
+      <c r="K61" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="P61" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5">
         <v>33</v>
       </c>
@@ -5191,63 +5232,63 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="7">
         <v>34</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J63" s="8" t="s">
+      <c r="I63" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K63" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L63" s="8" t="s">
+      <c r="K63" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="N63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O63" s="8" t="s">
+      <c r="N63" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O63" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="P63" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Q63" s="8" t="s">
+      <c r="Q63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R63" s="8" t="s">
+      <c r="R63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S63" s="8" t="s">
+      <c r="S63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T63" s="8" t="s">
+      <c r="T63" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5">
         <v>35</v>
       </c>
@@ -5300,7 +5341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5">
         <v>35</v>
       </c>
@@ -5338,7 +5379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -5376,7 +5417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5">
         <v>35</v>
       </c>
@@ -5417,60 +5458,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="7">
         <v>36</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="F68" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I68" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J68" s="8" t="s">
+      <c r="I68" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L68" s="8" t="s">
+      <c r="K68" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="O68" s="8" t="s">
+      <c r="O68" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="P68" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q68" s="8" t="s">
+      <c r="Q68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R68" s="8" t="s">
+      <c r="R68" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S68" s="8" t="s">
+      <c r="S68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T68" s="8" t="s">
+      <c r="T68" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5">
         <v>37</v>
       </c>
@@ -5523,7 +5564,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5">
         <v>37</v>
       </c>
@@ -5564,130 +5605,130 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="7">
         <v>38</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J71" s="8" t="s">
+      <c r="I71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K71" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L71" s="8" t="s">
+      <c r="K71" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P71" s="8" t="s">
+      <c r="P71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R71" s="8" t="s">
+      <c r="R71" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="7">
         <v>38</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J72" s="8" t="s">
+      <c r="I72" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K72" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L72" s="8" t="s">
+      <c r="K72" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P72" s="8" t="s">
+      <c r="P72" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="7">
         <v>38</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J73" s="8" t="s">
+      <c r="I73" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L73" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P73" s="8" t="s">
+      <c r="N73" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P73" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5">
         <v>39</v>
       </c>
@@ -5740,104 +5781,104 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="7">
         <v>40</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J75" s="8" t="s">
+      <c r="I75" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="N75" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O75" s="8" t="s">
+      <c r="N75" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O75" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P75" s="8" t="s">
+      <c r="P75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q75" s="8" t="s">
+      <c r="Q75" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R75" s="8" t="s">
+      <c r="R75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S75" s="8" t="s">
+      <c r="S75" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="T75" s="8" t="s">
+      <c r="T75" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="7">
         <v>40</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J76" s="8" t="s">
+      <c r="I76" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K76" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L76" s="8" t="s">
+      <c r="K76" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P76" s="8" t="s">
+      <c r="N76" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P76" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5">
         <v>41</v>
       </c>
@@ -5887,7 +5928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5">
         <v>41</v>
       </c>
@@ -5925,7 +5966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5">
         <v>41</v>
       </c>
@@ -5963,54 +6004,54 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="7">
         <v>42</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I80" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J80" s="8" t="s">
+      <c r="I80" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K80" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L80" s="8" t="s">
+      <c r="K80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="O80" s="8" t="s">
+      <c r="O80" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P80" s="8" t="s">
+      <c r="P80" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q80" s="8" t="s">
+      <c r="Q80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R80" s="8" t="s">
+      <c r="R80" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5">
         <v>43</v>
       </c>
@@ -6060,180 +6101,180 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="7">
         <v>44</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G82" s="8" t="s">
+      <c r="F82" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I82" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J82" s="8" t="s">
+      <c r="I82" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="N82" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O82" s="8" t="s">
+      <c r="N82" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O82" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P82" s="8" t="s">
+      <c r="P82" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q82" s="8" t="s">
+      <c r="Q82" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R82" s="8" t="s">
+      <c r="R82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S82" s="8" t="s">
+      <c r="S82" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T82" s="8" t="s">
+      <c r="T82" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="7">
         <v>44</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G83" s="8" t="s">
+      <c r="F83" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J83" s="8" t="s">
+      <c r="I83" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K83" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L83" s="8" t="s">
+      <c r="K83" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L83" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P83" s="8" t="s">
+      <c r="P83" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
+    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="7">
         <v>44</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="8" t="s">
+      <c r="F84" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I84" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J84" s="8" t="s">
+      <c r="I84" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K84" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L84" s="8" t="s">
+      <c r="K84" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P84" s="8" t="s">
+      <c r="P84" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="7">
         <v>44</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J85" s="8" t="s">
+      <c r="I85" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K85" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L85" s="8" t="s">
+      <c r="K85" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="N85" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="P85" s="8" t="s">
+      <c r="N85" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5">
         <v>45</v>
       </c>
@@ -6282,11 +6323,11 @@
       <c r="S86" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T86" s="9" t="s">
+      <c r="T86" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5">
         <v>45</v>
       </c>
@@ -6327,98 +6368,98 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
+    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="7">
         <v>46</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G88" s="8" t="s">
+      <c r="F88" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L88" s="8" t="s">
+      <c r="K88" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="O88" s="8" t="s">
+      <c r="O88" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P88" s="8" t="s">
+      <c r="P88" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q88" s="8" t="s">
+      <c r="Q88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R88" s="8" t="s">
+      <c r="R88" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S88" s="8" t="s">
+      <c r="S88" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T88" s="8" t="s">
+      <c r="T88" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
+    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="7">
         <v>46</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="F89" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K89" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L89" s="8" t="s">
+      <c r="K89" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P89" s="8" t="s">
+      <c r="P89" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5">
         <v>47</v>
       </c>
@@ -6468,133 +6509,133 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
+    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="7">
         <v>48</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91" s="8" t="s">
+      <c r="F91" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J91" s="8" t="s">
+      <c r="I91" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K91" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L91" s="8" t="s">
+      <c r="K91" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L91" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="O91" s="8" t="s">
+      <c r="O91" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P91" s="8" t="s">
+      <c r="P91" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q91" s="8" t="s">
+      <c r="Q91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R91" s="8" t="s">
+      <c r="R91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="8" t="s">
+      <c r="S91" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
+    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="7">
         <v>48</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J92" s="8" t="s">
+      <c r="I92" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K92" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L92" s="8" t="s">
+      <c r="K92" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L92" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P92" s="8" t="s">
+      <c r="P92" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
+    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="7">
         <v>48</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93" s="8" t="s">
+      <c r="F93" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J93" s="8" t="s">
+      <c r="I93" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K93" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L93" s="8" t="s">
+      <c r="K93" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L93" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P93" s="8" t="s">
+      <c r="P93" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5">
         <v>49</v>
       </c>
@@ -6650,7 +6691,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5">
         <v>49</v>
       </c>
@@ -6691,7 +6732,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5">
         <v>49</v>
       </c>
@@ -6729,174 +6770,174 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
+    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="7">
         <v>50</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J97" s="8" t="s">
+      <c r="I97" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="L97" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="O97" s="8" t="s">
+      <c r="O97" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P97" s="8" t="s">
+      <c r="P97" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q97" s="8" t="s">
+      <c r="Q97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R97" s="8" t="s">
+      <c r="R97" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S97" s="8" t="s">
+      <c r="S97" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T97" s="8" t="s">
+      <c r="T97" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
+    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="7">
         <v>50</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F98" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J98" s="8" t="s">
+      <c r="I98" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J98" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L98" s="8" t="s">
+      <c r="L98" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P98" s="8" t="s">
+      <c r="P98" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
+    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="7">
         <v>50</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G99" s="8" t="s">
+      <c r="F99" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J99" s="8" t="s">
+      <c r="I99" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J99" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="L99" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P99" s="8" t="s">
+      <c r="P99" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8">
+    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="7">
         <v>50</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J100" s="8" t="s">
+      <c r="I100" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K100" s="8" t="s">
+      <c r="K100" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L100" s="8" t="s">
+      <c r="L100" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P100" s="8" t="s">
+      <c r="P100" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="5">
         <v>51</v>
       </c>
@@ -6949,7 +6990,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="5">
         <v>51</v>
       </c>
@@ -6990,101 +7031,101 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="7">
         <v>52</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G103" s="8" t="s">
+      <c r="F103" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I103" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J103" s="8" t="s">
+      <c r="I103" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J103" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K103" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L103" s="8" t="s">
+      <c r="K103" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L103" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N103" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O103" s="8" t="s">
+      <c r="N103" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O103" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P103" s="8" t="s">
+      <c r="P103" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q103" s="8" t="s">
+      <c r="Q103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R103" s="8" t="s">
+      <c r="R103" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S103" s="8" t="s">
+      <c r="S103" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="T103" s="8" t="s">
+      <c r="T103" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
+    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="7">
         <v>52</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F104" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G104" s="8" t="s">
+      <c r="F104" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J104" s="8" t="s">
+      <c r="I104" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J104" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L104" s="8" t="s">
+      <c r="L104" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P104" s="8" t="s">
+      <c r="P104" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="5">
         <v>53</v>
       </c>
@@ -7128,104 +7169,104 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8">
+    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="7">
         <v>54</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G106" s="8" t="s">
+      <c r="F106" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J106" s="8" t="s">
+      <c r="I106" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J106" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K106" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L106" s="8" t="s">
+      <c r="K106" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L106" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N106" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O106" s="8" t="s">
+      <c r="N106" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O106" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P106" s="8" t="s">
+      <c r="P106" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q106" s="8" t="s">
+      <c r="Q106" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R106" s="8" t="s">
+      <c r="R106" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S106" s="8" t="s">
+      <c r="S106" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T106" s="8" t="s">
+      <c r="T106" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
+    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="7">
         <v>54</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J107" s="8" t="s">
+      <c r="I107" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J107" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L107" s="8" t="s">
+      <c r="L107" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P107" s="8" t="s">
+      <c r="P107" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="5">
         <v>55</v>
       </c>
@@ -7275,7 +7316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5">
         <v>55</v>
       </c>
@@ -7313,352 +7354,352 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8">
+    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="7">
         <v>56</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F110" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G110" s="8" t="s">
+      <c r="F110" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I110" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J110" s="8" t="s">
+      <c r="I110" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J110" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="K110" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L110" s="8" t="s">
+      <c r="L110" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O110" s="8" t="s">
+      <c r="O110" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P110" s="8" t="s">
+      <c r="P110" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R110" s="8" t="s">
+      <c r="R110" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
+    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="7">
         <v>56</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G111" s="8" t="s">
+      <c r="F111" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I111" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J111" s="8" t="s">
+      <c r="I111" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J111" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L111" s="8" t="s">
+      <c r="L111" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P111" s="8" t="s">
+      <c r="P111" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8">
+    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="7">
         <v>56</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G112" s="8" t="s">
+      <c r="F112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I112" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J112" s="8" t="s">
+      <c r="I112" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J112" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K112" s="8" t="s">
+      <c r="K112" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L112" s="8" t="s">
+      <c r="L112" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P112" s="8" t="s">
+      <c r="P112" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8">
+    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="7">
         <v>56</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G113" s="8" t="s">
+      <c r="F113" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I113" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J113" s="8" t="s">
+      <c r="I113" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J113" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="K113" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L113" s="8" t="s">
+      <c r="L113" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P113" s="8" t="s">
+      <c r="P113" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8">
+    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="7">
         <v>56</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I114" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J114" s="8" t="s">
+      <c r="I114" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J114" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K114" s="8" t="s">
+      <c r="K114" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L114" s="8" t="s">
+      <c r="L114" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P114" s="8" t="s">
+      <c r="P114" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8">
+    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="7">
         <v>56</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I115" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J115" s="8" t="s">
+      <c r="I115" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J115" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L115" s="8" t="s">
+      <c r="L115" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P115" s="8" t="s">
+      <c r="P115" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8">
+    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="7">
         <v>56</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J116" s="8" t="s">
+      <c r="F116" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J116" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K116" s="8" t="s">
+      <c r="K116" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L116" s="8" t="s">
+      <c r="L116" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P116" s="8" t="s">
+      <c r="P116" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8">
+    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="7">
         <v>56</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G117" s="8" t="s">
+      <c r="G117" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I117" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J117" s="8" t="s">
+      <c r="I117" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J117" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K117" s="8" t="s">
+      <c r="K117" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L117" s="8" t="s">
+      <c r="L117" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P117" s="8" t="s">
+      <c r="P117" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="8">
+    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="7">
         <v>56</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G118" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I118" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J118" s="8" t="s">
+      <c r="I118" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J118" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="K118" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L118" s="8" t="s">
+      <c r="L118" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P118" s="8" t="s">
+      <c r="P118" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="5">
         <v>57</v>
       </c>
@@ -7705,7 +7746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="5">
         <v>57</v>
       </c>
@@ -7743,136 +7784,136 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8">
+    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="7">
         <v>58</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="F121" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I121" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J121" s="8" t="s">
+      <c r="I121" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J121" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K121" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L121" s="8" t="s">
+      <c r="K121" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L121" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="N121" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O121" s="8" t="s">
+      <c r="N121" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O121" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P121" s="8" t="s">
+      <c r="P121" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R121" s="8" t="s">
+      <c r="R121" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8">
+    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="7">
         <v>58</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F122" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G122" s="8" t="s">
+      <c r="F122" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I122" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J122" s="8" t="s">
+      <c r="I122" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J122" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K122" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L122" s="8" t="s">
+      <c r="K122" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L122" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="N122" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P122" s="8" t="s">
+      <c r="N122" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P122" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8">
+    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="7">
         <v>58</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G123" s="8" t="s">
+      <c r="F123" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I123" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J123" s="10" t="s">
+      <c r="I123" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J123" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="K123" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L123" s="8" t="s">
+      <c r="K123" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L123" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="N123" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P123" s="8" t="s">
+      <c r="N123" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P123" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5">
         <v>59</v>
       </c>
@@ -7925,7 +7966,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5">
         <v>59</v>
       </c>
@@ -7966,7 +8007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="5">
         <v>59</v>
       </c>
@@ -8007,63 +8048,63 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8">
+    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="7">
         <v>60</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F127" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G127" s="8" t="s">
+      <c r="F127" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I127" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J127" s="8" t="s">
+      <c r="I127" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J127" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="K127" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L127" s="8" t="s">
+      <c r="L127" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="N127" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O127" s="8" t="s">
+      <c r="N127" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O127" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P127" s="8" t="s">
+      <c r="P127" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q127" s="8" t="s">
+      <c r="Q127" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R127" s="8" t="s">
+      <c r="R127" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S127" s="8" t="s">
+      <c r="S127" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="T127" s="8" t="s">
+      <c r="T127" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5">
         <v>61</v>
       </c>
@@ -8116,7 +8157,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5">
         <v>61</v>
       </c>
@@ -8157,7 +8198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5">
         <v>61</v>
       </c>
@@ -8195,119 +8236,119 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
+    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="7">
         <v>62</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F131" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G131" s="8" t="s">
+      <c r="F131" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I131" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J131" s="8" t="s">
+      <c r="I131" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J131" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="K131" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L131" s="8" t="s">
+      <c r="L131" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="N131" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O131" s="8" t="s">
+      <c r="N131" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O131" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P131" s="8" t="s">
+      <c r="P131" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q131" s="8" t="s">
+      <c r="Q131" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R131" s="8" t="s">
+      <c r="R131" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S131" s="8" t="s">
+      <c r="S131" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="T131" s="8" t="s">
+      <c r="T131" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="8">
+    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="7">
         <v>63</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="I132" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J132" s="8" t="s">
+      <c r="I132" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J132" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K132" s="8" t="s">
+      <c r="K132" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L132" s="8" t="s">
+      <c r="L132" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="N132" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="O132" s="8" t="s">
+      <c r="N132" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O132" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P132" s="8" t="s">
+      <c r="P132" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q132" s="8" t="s">
+      <c r="Q132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R132" s="8" t="s">
+      <c r="R132" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S132" s="8" t="s">
+      <c r="S132" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T132" s="8" t="s">
+      <c r="T132" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5">
         <v>64</v>
       </c>
@@ -8360,11 +8401,158 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C134" s="6"/>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="7">
+        <v>65</v>
+      </c>
+      <c r="C134" t="s">
+        <v>438</v>
+      </c>
+      <c r="D134" t="s">
+        <v>446</v>
+      </c>
+      <c r="E134" t="s">
+        <v>440</v>
+      </c>
+      <c r="F134" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" t="s">
+        <v>217</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J134" t="s">
+        <v>447</v>
+      </c>
+      <c r="K134" t="s">
+        <v>196</v>
+      </c>
+      <c r="L134" t="s">
+        <v>190</v>
+      </c>
+      <c r="N134" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O134" t="s">
+        <v>441</v>
+      </c>
+      <c r="P134" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q134" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R134" t="s">
+        <v>443</v>
+      </c>
+      <c r="S134" t="s">
+        <v>444</v>
+      </c>
+      <c r="T134" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="7">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>438</v>
+      </c>
+      <c r="D135" t="s">
+        <v>448</v>
+      </c>
+      <c r="E135" t="s">
+        <v>440</v>
+      </c>
+      <c r="F135" t="s">
+        <v>195</v>
+      </c>
+      <c r="G135" t="s">
+        <v>217</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J135" t="s">
+        <v>449</v>
+      </c>
+      <c r="K135" t="s">
+        <v>197</v>
+      </c>
+      <c r="L135" t="s">
+        <v>218</v>
+      </c>
+      <c r="N135" s="7"/>
+      <c r="O135" t="s">
+        <v>441</v>
+      </c>
+      <c r="P135" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R135" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="5">
+        <v>66</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="P136" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5" t="s">
+        <v>450</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T133" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:T138" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T68">
       <sortCondition ref="A2:A68"/>
     </sortState>

--- a/03 extraction consolidation results.xlsx
+++ b/03 extraction consolidation results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC4A532-CB74-4DB8-B8ED-95D9B57564AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9BB536-A3D0-48FA-96C2-6C7DD4B08CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="450">
   <si>
     <t>Title</t>
   </si>
@@ -1375,13 +1375,7 @@
     <t>health monitoring</t>
   </si>
   <si>
-    <t>code generation</t>
-  </si>
-  <si>
     <t>simulation data</t>
-  </si>
-  <si>
-    <t>model interpretation</t>
   </si>
   <si>
     <t>MoSTHeath Framework</t>
@@ -2353,21 +2347,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L116" sqref="L116"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="114.3125" customWidth="1"/>
-    <col min="4" max="4" width="42.1015625" customWidth="1"/>
+    <col min="3" max="3" width="114.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3125" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="10" t="s">
         <v>356</v>
       </c>
@@ -2392,7 +2386,7 @@
       </c>
       <c r="T1" s="12"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -2454,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2507,7 +2501,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2545,7 +2539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2636,7 +2630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2727,7 +2721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2774,7 +2768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2830,7 +2824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2909,7 +2903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2968,7 +2962,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3012,7 +3006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -3068,7 +3062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -3162,7 +3156,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3215,7 +3209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -3256,7 +3250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3409,7 +3403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -3568,7 +3562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3618,7 +3612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -3706,7 +3700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>18</v>
       </c>
@@ -3762,7 +3756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>19</v>
       </c>
@@ -3815,7 +3809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3944,7 +3938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3982,7 +3976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4020,7 +4014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -4058,7 +4052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>21</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>22</v>
       </c>
@@ -4208,7 +4202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>22</v>
       </c>
@@ -4246,7 +4240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>22</v>
       </c>
@@ -4284,7 +4278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>23</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>24</v>
       </c>
@@ -4381,7 +4375,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>25</v>
       </c>
@@ -4431,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>25</v>
       </c>
@@ -4469,7 +4463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>26</v>
       </c>
@@ -4522,7 +4516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>26</v>
       </c>
@@ -4566,7 +4560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>27</v>
       </c>
@@ -4622,7 +4616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>28</v>
       </c>
@@ -4672,7 +4666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>28</v>
       </c>
@@ -4710,7 +4704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>29</v>
       </c>
@@ -4763,7 +4757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>29</v>
       </c>
@@ -4804,7 +4798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>29</v>
       </c>
@@ -4845,7 +4839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>29</v>
       </c>
@@ -4883,7 +4877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>29</v>
       </c>
@@ -4921,7 +4915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>30</v>
       </c>
@@ -4977,7 +4971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>31</v>
       </c>
@@ -5021,7 +5015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>31</v>
       </c>
@@ -5059,7 +5053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>31</v>
       </c>
@@ -5097,7 +5091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>32</v>
       </c>
@@ -5141,7 +5135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>32</v>
       </c>
@@ -5179,7 +5173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>33</v>
       </c>
@@ -5232,7 +5226,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>34</v>
       </c>
@@ -5288,7 +5282,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>35</v>
       </c>
@@ -5341,7 +5335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>35</v>
       </c>
@@ -5379,7 +5373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:20" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -5417,7 +5411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>35</v>
       </c>
@@ -5458,7 +5452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:20" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>36</v>
       </c>
@@ -5511,7 +5505,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>37</v>
       </c>
@@ -5564,7 +5558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>37</v>
       </c>
@@ -5605,7 +5599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>38</v>
       </c>
@@ -5649,7 +5643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>38</v>
       </c>
@@ -5687,7 +5681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>38</v>
       </c>
@@ -5728,7 +5722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>39</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>40</v>
       </c>
@@ -5837,7 +5831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>40</v>
       </c>
@@ -5878,7 +5872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>41</v>
       </c>
@@ -5928,7 +5922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>41</v>
       </c>
@@ -5966,7 +5960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>41</v>
       </c>
@@ -6004,7 +5998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>42</v>
       </c>
@@ -6051,7 +6045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>43</v>
       </c>
@@ -6101,7 +6095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>44</v>
       </c>
@@ -6157,7 +6151,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>44</v>
       </c>
@@ -6195,7 +6189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>44</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>44</v>
       </c>
@@ -6274,7 +6268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>45</v>
       </c>
@@ -6327,7 +6321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>45</v>
       </c>
@@ -6368,7 +6362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>46</v>
       </c>
@@ -6421,7 +6415,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>46</v>
       </c>
@@ -6459,7 +6453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>47</v>
       </c>
@@ -6509,7 +6503,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>48</v>
       </c>
@@ -6559,7 +6553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>48</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>48</v>
       </c>
@@ -6635,7 +6629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>49</v>
       </c>
@@ -6691,7 +6685,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>49</v>
       </c>
@@ -6732,7 +6726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>49</v>
       </c>
@@ -6770,7 +6764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>50</v>
       </c>
@@ -6823,7 +6817,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>50</v>
       </c>
@@ -6861,7 +6855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>50</v>
       </c>
@@ -6899,7 +6893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>50</v>
       </c>
@@ -6937,7 +6931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>51</v>
       </c>
@@ -6990,7 +6984,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>51</v>
       </c>
@@ -7031,7 +7025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>52</v>
       </c>
@@ -7087,7 +7081,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>52</v>
       </c>
@@ -7125,7 +7119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>53</v>
       </c>
@@ -7169,7 +7163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>54</v>
       </c>
@@ -7225,7 +7219,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>54</v>
       </c>
@@ -7266,7 +7260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>55</v>
       </c>
@@ -7316,7 +7310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>55</v>
       </c>
@@ -7354,7 +7348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>56</v>
       </c>
@@ -7398,7 +7392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>56</v>
       </c>
@@ -7436,7 +7430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>56</v>
       </c>
@@ -7474,7 +7468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>56</v>
       </c>
@@ -7512,7 +7506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>56</v>
       </c>
@@ -7550,7 +7544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>56</v>
       </c>
@@ -7588,7 +7582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>56</v>
       </c>
@@ -7623,7 +7617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>56</v>
       </c>
@@ -7661,7 +7655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>56</v>
       </c>
@@ -7699,7 +7693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>57</v>
       </c>
@@ -7746,7 +7740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>57</v>
       </c>
@@ -7784,7 +7778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>58</v>
       </c>
@@ -7831,7 +7825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>58</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>58</v>
       </c>
@@ -7913,7 +7907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>59</v>
       </c>
@@ -7966,7 +7960,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>59</v>
       </c>
@@ -8007,7 +8001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>59</v>
       </c>
@@ -8048,7 +8042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>60</v>
       </c>
@@ -8104,7 +8098,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>61</v>
       </c>
@@ -8157,7 +8151,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>61</v>
       </c>
@@ -8198,7 +8192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>61</v>
       </c>
@@ -8236,7 +8230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>62</v>
       </c>
@@ -8292,7 +8286,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>63</v>
       </c>
@@ -8348,7 +8342,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>64</v>
       </c>
@@ -8401,15 +8395,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>65</v>
       </c>
       <c r="C134" t="s">
         <v>438</v>
       </c>
-      <c r="D134" t="s">
-        <v>446</v>
+      <c r="D134" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E134" t="s">
         <v>440</v>
@@ -8424,7 +8418,7 @@
         <v>198</v>
       </c>
       <c r="J134" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K134" t="s">
         <v>196</v>
@@ -8454,15 +8448,15 @@
         <v>445</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>65</v>
       </c>
       <c r="C135" t="s">
         <v>438</v>
       </c>
-      <c r="D135" t="s">
-        <v>448</v>
+      <c r="D135" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E135" t="s">
         <v>440</v>
@@ -8477,7 +8471,7 @@
         <v>198</v>
       </c>
       <c r="J135" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K135" t="s">
         <v>197</v>
@@ -8499,7 +8493,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>66</v>
       </c>
@@ -8508,7 +8502,7 @@
         <v>439</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>448</v>
+        <v>26</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>440</v>
@@ -8524,7 +8518,7 @@
         <v>198</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>197</v>
@@ -8548,7 +8542,7 @@
       </c>
       <c r="S136" s="5"/>
       <c r="T136" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
